--- a/data/trans_orig/P19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F60234-99E4-4E55-90B6-B4878352CF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{878674F0-3270-4569-874A-3E1109D3A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48922C12-90E3-49DA-BB13-462A6D172F7D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4882DD4-DFEA-4D17-83E5-CC8B1C3FB1B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,859 +77,877 @@
     <t>20,52%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,93%</t>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
   </si>
   <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
   </si>
   <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5CC5A-D535-47D3-9C2F-8384AAB2F7A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03242D94-D264-4DE3-B930-78FE89841F14}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1492,7 +1510,7 @@
         <v>509</v>
       </c>
       <c r="N4" s="7">
-        <v>507842</v>
+        <v>507841</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1594,7 +1612,7 @@
         <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>2345911</v>
+        <v>2345910</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0744529D-0259-46E8-9E44-72560BD9ACC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085663F6-2319-4028-8907-0B343767BB90}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2386,13 +2404,13 @@
         <v>580277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1028</v>
@@ -2401,13 +2419,13 @@
         <v>1087626</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2440,13 @@
         <v>1455245</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1093</v>
@@ -2437,13 +2455,13 @@
         <v>1176561</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2461</v>
@@ -2452,13 +2470,13 @@
         <v>2631806</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2544,13 @@
         <v>176273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>168</v>
@@ -2541,13 +2559,13 @@
         <v>188829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>324</v>
@@ -2556,13 +2574,13 @@
         <v>365102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2595,13 @@
         <v>304908</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -2592,13 +2610,13 @@
         <v>269802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>526</v>
@@ -2607,13 +2625,13 @@
         <v>574710</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,16 +2696,16 @@
         <v>795</v>
       </c>
       <c r="D13" s="7">
-        <v>842848</v>
+        <v>842847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>995</v>
@@ -2696,28 +2714,28 @@
         <v>1077888</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1790</v>
       </c>
       <c r="N13" s="7">
-        <v>1920735</v>
+        <v>1920736</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2750,13 @@
         <v>2574421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2298</v>
@@ -2747,13 +2765,13 @@
         <v>2475378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4703</v>
@@ -2762,13 +2780,13 @@
         <v>5049799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,7 +2798,7 @@
         <v>3200</v>
       </c>
       <c r="D15" s="7">
-        <v>3417269</v>
+        <v>3417268</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2810,7 +2828,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6970534</v>
+        <v>6970535</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E049F5D7-191F-4772-994B-21E276A30B07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F92B2B-1B06-47E6-A490-F5AB5CD41286}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2985,13 @@
         <v>129483</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>213</v>
@@ -2982,13 +3000,13 @@
         <v>231312</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>342</v>
@@ -2997,13 +3015,13 @@
         <v>360795</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3036,13 @@
         <v>624864</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>679</v>
@@ -3033,13 +3051,13 @@
         <v>763348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1312</v>
@@ -3048,13 +3066,13 @@
         <v>1388212</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3140,13 @@
         <v>645978</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>730</v>
@@ -3137,13 +3155,13 @@
         <v>757879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1331</v>
@@ -3152,13 +3170,13 @@
         <v>1403857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3191,13 @@
         <v>1430407</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1178</v>
@@ -3188,13 +3206,13 @@
         <v>1230421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>2529</v>
@@ -3203,13 +3221,13 @@
         <v>2660828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3295,13 @@
         <v>209930</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>216</v>
@@ -3292,13 +3310,13 @@
         <v>227575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>406</v>
@@ -3307,10 +3325,10 @@
         <v>437505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>200</v>
@@ -3328,13 +3346,13 @@
         <v>336956</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -3343,13 +3361,13 @@
         <v>321565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>621</v>
@@ -3358,13 +3376,13 @@
         <v>658521</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3450,13 @@
         <v>985391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>1159</v>
@@ -3447,13 +3465,13 @@
         <v>1216765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>2079</v>
@@ -3462,13 +3480,13 @@
         <v>2202156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3501,13 @@
         <v>2392227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2167</v>
@@ -3498,13 +3516,13 @@
         <v>2315335</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>4462</v>
@@ -3513,13 +3531,13 @@
         <v>4707562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26113803-B693-45B0-AEAC-E01A0172E00A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD27F0-4400-44FA-9898-3EE69C777578}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3736,13 @@
         <v>90972</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>230</v>
@@ -3733,13 +3751,13 @@
         <v>136203</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>340</v>
@@ -3748,13 +3766,13 @@
         <v>227175</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3787,13 @@
         <v>445245</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>1178</v>
@@ -3784,13 +3802,13 @@
         <v>684288</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1752</v>
@@ -3799,13 +3817,13 @@
         <v>1129533</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3891,13 @@
         <v>549660</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>910</v>
@@ -3888,13 +3906,13 @@
         <v>684769</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>1391</v>
@@ -3903,13 +3921,13 @@
         <v>1234429</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3942,13 @@
         <v>1597381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>1984</v>
@@ -3939,13 +3957,13 @@
         <v>1547159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>3483</v>
@@ -3954,13 +3972,13 @@
         <v>3144540</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4046,13 @@
         <v>238542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>433</v>
@@ -4043,13 +4061,13 @@
         <v>325169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>671</v>
@@ -4058,13 +4076,13 @@
         <v>563711</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4097,13 @@
         <v>430436</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>566</v>
@@ -4094,13 +4112,13 @@
         <v>385788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1005</v>
@@ -4109,13 +4127,13 @@
         <v>816224</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4201,13 @@
         <v>879174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>1573</v>
@@ -4198,13 +4216,13 @@
         <v>1146141</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>2402</v>
@@ -4213,13 +4231,13 @@
         <v>2025315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4252,13 @@
         <v>2473062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>3728</v>
@@ -4249,13 +4267,13 @@
         <v>2617235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>6240</v>
@@ -4264,13 +4282,13 @@
         <v>5090297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{878674F0-3270-4569-874A-3E1109D3A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9723E5D5-EB6A-4198-A313-2EBB551AB872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4882DD4-DFEA-4D17-83E5-CC8B1C3FB1B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0E78509-2088-46A2-B032-34EC0979F0F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,756 +77,744 @@
     <t>20,52%</t>
   </si>
   <si>
-    <t>18,26%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
   </si>
   <si>
     <t>76,87%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>30,68%</t>
   </si>
   <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
     <t>66,54%</t>
   </si>
   <si>
@@ -854,9 +842,6 @@
     <t>45,74%</t>
   </si>
   <si>
-    <t>42,6%</t>
-  </si>
-  <si>
     <t>48,99%</t>
   </si>
   <si>
@@ -884,9 +869,6 @@
     <t>51,01%</t>
   </si>
   <si>
-    <t>57,4%</t>
-  </si>
-  <si>
     <t>59,15%</t>
   </si>
   <si>
@@ -896,9 +878,6 @@
     <t>61,78%</t>
   </si>
   <si>
-    <t>26,23%</t>
-  </si>
-  <si>
     <t>24,39%</t>
   </si>
   <si>
@@ -917,15 +896,9 @@
     <t>28,46%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
     <t>29,67%</t>
   </si>
   <si>
-    <t>73,77%</t>
-  </si>
-  <si>
     <t>71,96%</t>
   </si>
   <si>
@@ -945,9 +918,6 @@
   </si>
   <si>
     <t>70,33%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03242D94-D264-4DE3-B930-78FE89841F14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D6CBA9-BEEA-480E-878F-3E8909353489}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1996,7 +1966,7 @@
         <v>2410</v>
       </c>
       <c r="D14" s="7">
-        <v>2460713</v>
+        <v>2460714</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2047,7 +2017,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275631</v>
+        <v>3275632</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085663F6-2319-4028-8907-0B343767BB90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A0DD4A-96E0-4954-A7EC-84E47450FC2C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2407,10 +2377,10 @@
         <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1028</v>
@@ -2419,13 +2389,13 @@
         <v>1087626</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2410,13 @@
         <v>1455245</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1093</v>
@@ -2455,13 +2425,13 @@
         <v>1176561</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
         <v>2461</v>
@@ -2470,13 +2440,13 @@
         <v>2631806</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2514,13 @@
         <v>176273</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>168</v>
@@ -2559,13 +2529,13 @@
         <v>188829</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>324</v>
@@ -2574,13 +2544,13 @@
         <v>365102</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2565,13 @@
         <v>304908</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -2610,13 +2580,13 @@
         <v>269802</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>526</v>
@@ -2625,13 +2595,13 @@
         <v>574710</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2669,13 @@
         <v>842847</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>995</v>
@@ -2714,28 +2684,28 @@
         <v>1077888</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1790</v>
       </c>
       <c r="N13" s="7">
-        <v>1920736</v>
+        <v>1920735</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2720,13 @@
         <v>2574421</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2298</v>
@@ -2765,13 +2735,13 @@
         <v>2475378</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4703</v>
@@ -2780,13 +2750,13 @@
         <v>5049799</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2798,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6970535</v>
+        <v>6970534</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F92B2B-1B06-47E6-A490-F5AB5CD41286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CDADF0-0F92-49D6-BCDA-9F16BE5DCF07}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2955,13 @@
         <v>129483</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>213</v>
@@ -3000,13 +2970,13 @@
         <v>231312</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>342</v>
@@ -3015,13 +2985,13 @@
         <v>360795</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3006,13 @@
         <v>624864</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>679</v>
@@ -3051,13 +3021,13 @@
         <v>763348</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1312</v>
@@ -3066,13 +3036,13 @@
         <v>1388212</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3110,13 @@
         <v>645978</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>730</v>
@@ -3155,13 +3125,13 @@
         <v>757879</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1331</v>
@@ -3170,13 +3140,13 @@
         <v>1403857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3161,13 @@
         <v>1430407</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>1178</v>
@@ -3206,13 +3176,13 @@
         <v>1230421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>2529</v>
@@ -3221,13 +3191,13 @@
         <v>2660828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3265,13 @@
         <v>209930</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>216</v>
@@ -3310,13 +3280,13 @@
         <v>227575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>406</v>
@@ -3325,13 +3295,13 @@
         <v>437505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3316,13 @@
         <v>336956</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -3361,13 +3331,13 @@
         <v>321565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>621</v>
@@ -3376,13 +3346,13 @@
         <v>658521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3420,13 @@
         <v>985391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>1159</v>
@@ -3465,13 +3435,13 @@
         <v>1216765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>2079</v>
@@ -3480,13 +3450,13 @@
         <v>2202156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3471,13 @@
         <v>2392227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>2167</v>
@@ -3516,13 +3486,13 @@
         <v>2315335</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>4462</v>
@@ -3531,13 +3501,13 @@
         <v>4707562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CD27F0-4400-44FA-9898-3EE69C777578}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF3A05B-BC4C-4F11-98B4-216DCF11E6B7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3706,13 @@
         <v>90972</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>230</v>
@@ -3751,13 +3721,13 @@
         <v>136203</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>340</v>
@@ -3766,13 +3736,13 @@
         <v>227175</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3757,13 @@
         <v>445245</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>1178</v>
@@ -3802,13 +3772,13 @@
         <v>684288</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>1752</v>
@@ -3817,13 +3787,13 @@
         <v>1129533</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3861,13 @@
         <v>549660</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>910</v>
@@ -3906,13 +3876,13 @@
         <v>684769</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>1391</v>
@@ -3921,13 +3891,13 @@
         <v>1234429</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3912,13 @@
         <v>1597381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>1984</v>
@@ -3957,13 +3927,13 @@
         <v>1547159</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>3483</v>
@@ -3972,13 +3942,13 @@
         <v>3144540</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4016,13 @@
         <v>238542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>433</v>
@@ -4061,13 +4031,13 @@
         <v>325169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>671</v>
@@ -4076,13 +4046,13 @@
         <v>563711</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4067,13 @@
         <v>430436</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>566</v>
@@ -4112,13 +4082,13 @@
         <v>385788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>1005</v>
@@ -4127,13 +4097,13 @@
         <v>816224</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4171,13 @@
         <v>879174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>1573</v>
@@ -4216,13 +4186,13 @@
         <v>1146141</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>2402</v>
@@ -4231,13 +4201,13 @@
         <v>2025315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4222,13 @@
         <v>2473062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>3728</v>
@@ -4267,13 +4237,13 @@
         <v>2617235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>6240</v>
@@ -4282,13 +4252,13 @@
         <v>5090297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9723E5D5-EB6A-4198-A313-2EBB551AB872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD87007-928E-43B1-BF5A-CD68495226E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0E78509-2088-46A2-B032-34EC0979F0F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B33CAB05-DCF3-4396-8AB6-55CE64CB0C0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -71,715 +71,715 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>86,1%</t>
   </si>
   <si>
     <t>83,4%</t>
   </si>
   <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>84,89%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>22,99%</t>
+    <t>23,07%</t>
   </si>
   <si>
     <t>28,11%</t>
@@ -788,19 +788,19 @@
     <t>30,68%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
   </si>
   <si>
     <t>28,19%</t>
   </si>
   <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>74,4%</t>
@@ -809,115 +809,127 @@
     <t>71,89%</t>
   </si>
   <si>
-    <t>77,01%</t>
+    <t>76,93%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
   </si>
   <si>
     <t>71,81%</t>
   </si>
   <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>35,66%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>48,99%</t>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>64,34%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>54,26%</t>
   </si>
   <si>
-    <t>51,01%</t>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
   </si>
   <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>70,33%</t>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D6CBA9-BEEA-480E-878F-3E8909353489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA18E37-5683-4410-A9F7-7DFB74BF299A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1480,7 +1492,7 @@
         <v>509</v>
       </c>
       <c r="N4" s="7">
-        <v>507841</v>
+        <v>507842</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1582,7 +1594,7 @@
         <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>2345910</v>
+        <v>2345911</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1966,7 +1978,7 @@
         <v>2410</v>
       </c>
       <c r="D14" s="7">
-        <v>2460714</v>
+        <v>2460713</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2017,7 +2029,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275632</v>
+        <v>3275631</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2080,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A0DD4A-96E0-4954-A7EC-84E47450FC2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C56551-3A47-4666-A737-9C18DC96D402}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2374,10 +2386,10 @@
         <v>580277</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>111</v>
@@ -2425,13 +2437,13 @@
         <v>1176561</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M8" s="7">
         <v>2461</v>
@@ -2666,7 +2678,7 @@
         <v>795</v>
       </c>
       <c r="D13" s="7">
-        <v>842847</v>
+        <v>842848</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>141</v>
@@ -2768,7 +2780,7 @@
         <v>3200</v>
       </c>
       <c r="D15" s="7">
-        <v>3417268</v>
+        <v>3417269</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2831,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CDADF0-0F92-49D6-BCDA-9F16BE5DCF07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D31D1FE-A352-46C7-AD9E-27E6E559C231}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2970,13 +2982,13 @@
         <v>231312</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>342</v>
@@ -2985,13 +2997,13 @@
         <v>360795</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3018,13 @@
         <v>624864</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>679</v>
@@ -3021,13 +3033,13 @@
         <v>763348</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1312</v>
@@ -3036,13 +3048,13 @@
         <v>1388212</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3122,13 @@
         <v>645978</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>730</v>
@@ -3125,13 +3137,13 @@
         <v>757879</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>1331</v>
@@ -3140,13 +3152,13 @@
         <v>1403857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3173,13 @@
         <v>1430407</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>1178</v>
@@ -3176,13 +3188,13 @@
         <v>1230421</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>2529</v>
@@ -3191,10 +3203,10 @@
         <v>2660828</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>82</v>
@@ -3265,13 +3277,13 @@
         <v>209930</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>216</v>
@@ -3280,13 +3292,13 @@
         <v>227575</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>406</v>
@@ -3295,13 +3307,13 @@
         <v>437505</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3328,13 @@
         <v>336956</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -3331,13 +3343,13 @@
         <v>321565</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>621</v>
@@ -3346,13 +3358,13 @@
         <v>658521</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3432,13 @@
         <v>985391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>1159</v>
@@ -3435,13 +3447,13 @@
         <v>1216765</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>2079</v>
@@ -3450,13 +3462,13 @@
         <v>2202156</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3483,13 @@
         <v>2392227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>2167</v>
@@ -3486,13 +3498,13 @@
         <v>2315335</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>4462</v>
@@ -3501,13 +3513,13 @@
         <v>4707562</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF3A05B-BC4C-4F11-98B4-216DCF11E6B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17815A78-5BA3-4A87-A3FF-237E3E7D7F82}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3718,13 @@
         <v>90972</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>230</v>
@@ -3721,13 +3733,13 @@
         <v>136203</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>340</v>
@@ -3736,13 +3748,13 @@
         <v>227175</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3769,13 @@
         <v>445245</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>1178</v>
@@ -3772,13 +3784,13 @@
         <v>684288</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>1752</v>
@@ -3787,10 +3799,10 @@
         <v>1129533</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>244</v>
@@ -4034,10 +4046,10 @@
         <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>671</v>
@@ -4046,13 +4058,13 @@
         <v>563711</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4079,13 @@
         <v>430436</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>566</v>
@@ -4082,13 +4094,13 @@
         <v>385788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1005</v>
@@ -4097,13 +4109,13 @@
         <v>816224</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4183,13 @@
         <v>879174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>1573</v>
@@ -4186,13 +4198,13 @@
         <v>1146141</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>2402</v>
@@ -4201,13 +4213,13 @@
         <v>2025315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4234,13 @@
         <v>2473062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>3728</v>
@@ -4237,13 +4249,13 @@
         <v>2617235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>6240</v>
@@ -4252,13 +4264,13 @@
         <v>5090297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD87007-928E-43B1-BF5A-CD68495226E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{590A2B6F-2100-462A-970C-55B20CC313D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B33CAB05-DCF3-4396-8AB6-55CE64CB0C0C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EA2A8C5C-9D99-448C-A508-FCDEE79AECF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -722,214 +722,208 @@
     <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
   </si>
   <si>
     <t>29,93%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
   </si>
   <si>
     <t>70,07%</t>
   </si>
   <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA18E37-5683-4410-A9F7-7DFB74BF299A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79449E15-D901-4BCD-A471-CD82703A2112}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1668,7 +1662,7 @@
         <v>1228</v>
       </c>
       <c r="D8" s="7">
-        <v>1258643</v>
+        <v>1258644</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1713,7 @@
         <v>1648</v>
       </c>
       <c r="D9" s="7">
-        <v>1692500</v>
+        <v>1692501</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C56551-3A47-4666-A737-9C18DC96D402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E0A93C-B944-4EC8-B590-D900FE8926DC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2279,7 +2273,7 @@
         <v>961</v>
       </c>
       <c r="I5" s="7">
-        <v>1029014</v>
+        <v>1029015</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2330,7 +2324,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2604,7 +2598,7 @@
         <v>526</v>
       </c>
       <c r="N11" s="7">
-        <v>574710</v>
+        <v>574711</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2655,7 +2649,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2708,7 +2702,7 @@
         <v>1790</v>
       </c>
       <c r="N13" s="7">
-        <v>1920735</v>
+        <v>1920736</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>147</v>
@@ -2810,7 +2804,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6970534</v>
+        <v>6970535</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D31D1FE-A352-46C7-AD9E-27E6E559C231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D3023A-60B3-4B3D-B044-DE6EC8A8F918}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3355,7 +3349,7 @@
         <v>621</v>
       </c>
       <c r="N11" s="7">
-        <v>658521</v>
+        <v>658522</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>207</v>
@@ -3406,7 +3400,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17815A78-5BA3-4A87-A3FF-237E3E7D7F82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416EB24C-6A4E-4F5C-843E-C7FD538D468C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3709,7 @@
         <v>110</v>
       </c>
       <c r="D4" s="7">
-        <v>90972</v>
+        <v>89463</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3730,7 +3724,7 @@
         <v>230</v>
       </c>
       <c r="I4" s="7">
-        <v>136203</v>
+        <v>125337</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3745,16 +3739,16 @@
         <v>340</v>
       </c>
       <c r="N4" s="7">
-        <v>227175</v>
+        <v>214800</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,46 +3760,46 @@
         <v>574</v>
       </c>
       <c r="D5" s="7">
-        <v>445245</v>
+        <v>420404</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>1178</v>
       </c>
       <c r="I5" s="7">
-        <v>684288</v>
+        <v>616678</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1752</v>
       </c>
       <c r="N5" s="7">
-        <v>1129533</v>
+        <v>1037081</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3811,7 @@
         <v>684</v>
       </c>
       <c r="D6" s="7">
-        <v>536217</v>
+        <v>509867</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3826,7 @@
         <v>1408</v>
       </c>
       <c r="I6" s="7">
-        <v>820491</v>
+        <v>742015</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3841,7 @@
         <v>2092</v>
       </c>
       <c r="N6" s="7">
-        <v>1356708</v>
+        <v>1251881</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,46 +3864,46 @@
         <v>481</v>
       </c>
       <c r="D7" s="7">
-        <v>549660</v>
+        <v>541791</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>910</v>
       </c>
       <c r="I7" s="7">
-        <v>684769</v>
+        <v>655344</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>1391</v>
       </c>
       <c r="N7" s="7">
-        <v>1234429</v>
+        <v>1197135</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,46 +3915,46 @@
         <v>1499</v>
       </c>
       <c r="D8" s="7">
-        <v>1597381</v>
+        <v>1734051</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>1984</v>
       </c>
       <c r="I8" s="7">
-        <v>1547159</v>
+        <v>1566232</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>3483</v>
       </c>
       <c r="N8" s="7">
-        <v>3144540</v>
+        <v>3300283</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3966,7 @@
         <v>1980</v>
       </c>
       <c r="D9" s="7">
-        <v>2147041</v>
+        <v>2275842</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3981,7 @@
         <v>2894</v>
       </c>
       <c r="I9" s="7">
-        <v>2231928</v>
+        <v>2221576</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +3996,7 @@
         <v>4874</v>
       </c>
       <c r="N9" s="7">
-        <v>4378969</v>
+        <v>4497418</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,46 +4019,46 @@
         <v>238</v>
       </c>
       <c r="D10" s="7">
-        <v>238542</v>
+        <v>229029</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>433</v>
       </c>
       <c r="I10" s="7">
-        <v>325169</v>
+        <v>301571</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>671</v>
       </c>
       <c r="N10" s="7">
-        <v>563711</v>
+        <v>530601</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,46 +4070,46 @@
         <v>439</v>
       </c>
       <c r="D11" s="7">
-        <v>430436</v>
+        <v>414030</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>566</v>
       </c>
       <c r="I11" s="7">
-        <v>385788</v>
+        <v>356290</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1005</v>
       </c>
       <c r="N11" s="7">
-        <v>816224</v>
+        <v>770319</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4121,7 @@
         <v>677</v>
       </c>
       <c r="D12" s="7">
-        <v>668978</v>
+        <v>643059</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4136,7 @@
         <v>999</v>
       </c>
       <c r="I12" s="7">
-        <v>710957</v>
+        <v>657861</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4151,7 @@
         <v>1676</v>
       </c>
       <c r="N12" s="7">
-        <v>1379935</v>
+        <v>1300920</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,46 +4174,46 @@
         <v>829</v>
       </c>
       <c r="D13" s="7">
-        <v>879174</v>
+        <v>860283</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>1573</v>
       </c>
       <c r="I13" s="7">
-        <v>1146141</v>
+        <v>1082252</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>2402</v>
       </c>
       <c r="N13" s="7">
-        <v>2025315</v>
+        <v>1942535</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,46 +4225,46 @@
         <v>2512</v>
       </c>
       <c r="D14" s="7">
-        <v>2473062</v>
+        <v>2568485</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>3728</v>
       </c>
       <c r="I14" s="7">
-        <v>2617235</v>
+        <v>2539199</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>6240</v>
       </c>
       <c r="N14" s="7">
-        <v>5090297</v>
+        <v>5107684</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4276,7 @@
         <v>3341</v>
       </c>
       <c r="D15" s="7">
-        <v>3352236</v>
+        <v>3428768</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4291,7 @@
         <v>5301</v>
       </c>
       <c r="I15" s="7">
-        <v>3763376</v>
+        <v>3621451</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4306,7 @@
         <v>8642</v>
       </c>
       <c r="N15" s="7">
-        <v>7115612</v>
+        <v>7050219</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
